--- a/Industrial_Engineering.xlsx
+++ b/Industrial_Engineering.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="p12,13" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="443">
   <si>
     <t>流動資産</t>
     <rPh sb="0" eb="2">
@@ -3597,6 +3597,588 @@
   </si>
   <si>
     <t>棚卸資産回転率</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.資本利益率</t>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本経常利益率</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業利益</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経常利益</t>
+    <rPh sb="0" eb="2">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当期純利益</t>
+    <rPh sb="0" eb="2">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本　前連結</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本　当連結</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営資本営業利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営資本　前連結</t>
+    <rPh sb="0" eb="2">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営資本　当連結</t>
+    <rPh sb="0" eb="2">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウレンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己資本当期純利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己資本　前連結</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己資本　当連結</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウレンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本経常利益率</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ケイジョウリエキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本　前連結</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ゼンレンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本　当連結</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>トウレンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己資本当期純利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>トウキジュンリエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上原価</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上総利益</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売費</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業外収益</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業外費用</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別利益</t>
+    <rPh sb="0" eb="2">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別損失</t>
+    <rPh sb="0" eb="2">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税引前当期純利益</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイビキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>トウキジュンリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当連結会計年度の実績値</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジッセキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高高利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウリエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高売上総利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ソウリエキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高営業利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高税引前当期純利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼイビキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高当期純利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高経常利益率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運輸業等営業費及び売上原価</t>
+    <rPh sb="0" eb="3">
+      <t>ウンユギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総資本回転率</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有形固定資産</t>
+    <rPh sb="0" eb="2">
+      <t>ユウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有形固定資産回転率</t>
+    <rPh sb="0" eb="2">
+      <t>ユウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定資産</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定資産回転率</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚卸資産</t>
+    <rPh sb="0" eb="2">
+      <t>タナオロシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚卸資産回転率</t>
+    <rPh sb="0" eb="2">
+      <t>タナオロシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサン</t>
+    </rPh>
     <rPh sb="4" eb="6">
       <t>カイテン</t>
     </rPh>
@@ -3610,12 +4192,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0;&quot;△ &quot;#,##0"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;&quot;△ &quot;#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="#,##0.000;&quot;△ &quot;#,##0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3686,7 +4271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3776,13 +4361,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3906,7 +4572,22 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3942,23 +4623,65 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4816,10 +5539,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4829,55 +5552,127 @@
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1186831</v>
+      </c>
+      <c r="M4" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="21">
+        <v>104591</v>
+      </c>
+      <c r="O4" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="21">
+        <v>103336</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>406</v>
+      </c>
+      <c r="R4" s="21">
+        <v>46737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F6" s="21" t="s">
         <v>271</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L6" s="60">
+        <f>(P4)/((F83+G83)/2)*100</f>
+        <v>9.8954777237796563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F7" s="21" t="s">
         <v>272</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L7" s="21">
+        <f>F83</f>
+        <v>1065751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K8" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="21">
+        <f>G83</f>
+        <v>1022799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="61">
+        <f>N4/((L11+L12)/2)*100</f>
+        <v>11.145245919806998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11" s="21">
+        <f>F58-F40-F56</f>
+        <v>950677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>277</v>
       </c>
@@ -4887,8 +5682,15 @@
       <c r="G12" s="21">
         <v>110761</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L12" s="21">
+        <f>G58-G40-G56</f>
+        <v>926195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>278</v>
       </c>
@@ -4899,7 +5701,7 @@
         <v>121093</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>279</v>
       </c>
@@ -4909,8 +5711,15 @@
       <c r="G14" s="21">
         <v>35028</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>413</v>
+      </c>
+      <c r="L14" s="61">
+        <f>R4/((L15+L16)/2)*100</f>
+        <v>8.5440226392743153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>280</v>
       </c>
@@ -4920,8 +5729,15 @@
       <c r="G15" s="21">
         <v>73189</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K15" t="s">
+        <v>414</v>
+      </c>
+      <c r="L15" s="21">
+        <f>F72+F79</f>
+        <v>565134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>281</v>
       </c>
@@ -4930,6 +5746,13 @@
       </c>
       <c r="G16" s="21">
         <v>9994</v>
+      </c>
+      <c r="K16" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="21">
+        <f>G72+G79</f>
+        <v>528894</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -5503,16 +6326,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5521,55 +6344,122 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1419385</v>
+      </c>
+      <c r="J5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="21">
+        <v>367084</v>
+      </c>
+      <c r="L5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="21">
+        <v>371572</v>
+      </c>
+      <c r="N5" t="s">
+        <v>406</v>
+      </c>
+      <c r="O5" s="21">
+        <v>247868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E6" s="21" t="s">
         <v>271</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6">
+        <f>M5/((I7+I8)/2)*100</f>
+        <v>13.247538717031073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E7" s="21" t="s">
         <v>272</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="21">
+        <f>E72</f>
+        <v>2823274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="21">
+        <f>F72</f>
+        <v>2786402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>410</v>
+      </c>
+      <c r="I10" s="41">
+        <f>K5/((I11+I12)/2)*100</f>
+        <v>14.82692616062813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I11" s="21">
+        <f>E49-E31-E47</f>
+        <v>2457214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>277</v>
       </c>
@@ -5579,8 +6469,15 @@
       <c r="F12" s="21">
         <v>217897</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I12" s="21">
+        <f>F49-F31-F47</f>
+        <v>2494372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>278</v>
       </c>
@@ -5591,7 +6488,7 @@
         <v>293995</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>279</v>
       </c>
@@ -5601,8 +6498,15 @@
       <c r="F14" s="21">
         <v>656321</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I14" s="41">
+        <f>O5/((I15+I16)/2)*100</f>
+        <v>11.767481761371755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>280</v>
       </c>
@@ -5612,8 +6516,15 @@
       <c r="F15" s="21">
         <v>59668</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="21">
+        <f>E62+E68</f>
+        <v>2121173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>281</v>
       </c>
@@ -5622,6 +6533,13 @@
       </c>
       <c r="F16" s="21">
         <v>39899</v>
+      </c>
+      <c r="H16" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="21">
+        <f>F62+F68</f>
+        <v>2091589</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -6090,10 +7008,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6101,31 +7019,41 @@
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>344</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>345</v>
       </c>
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>270</v>
       </c>
       <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="21" t="s">
@@ -6134,8 +7062,18 @@
       <c r="D5" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H5" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="69">
+        <f>D8</f>
+        <v>1419385</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="21" t="s">
@@ -6144,8 +7082,16 @@
       <c r="D6" s="21" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H6" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="70">
+        <f>D9</f>
+        <v>317582</v>
+      </c>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="21" t="s">
@@ -6154,8 +7100,19 @@
       <c r="D7" s="21" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H7" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" s="71">
+        <f>D10</f>
+        <v>1101803</v>
+      </c>
+      <c r="J7" s="64">
+        <f>I7/I5*100</f>
+        <v>77.625380006129419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
         <v>346</v>
       </c>
@@ -6166,8 +7123,13 @@
       <c r="D8" s="21">
         <v>1419385</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="62" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>347</v>
       </c>
@@ -6178,8 +7140,16 @@
       <c r="D9" s="21">
         <v>317582</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H9" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" s="70">
+        <f>D15</f>
+        <v>734719</v>
+      </c>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
         <v>348</v>
       </c>
@@ -6190,18 +7160,42 @@
       <c r="D10" s="21">
         <v>1101803</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H10" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="I10" s="71">
+        <f>D16</f>
+        <v>367084</v>
+      </c>
+      <c r="J10" s="64">
+        <f>I9/I5*100</f>
+        <v>51.763193213962388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
         <v>349</v>
       </c>
       <c r="B11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H12" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="I12" s="70">
+        <f>D26</f>
+        <v>30405</v>
+      </c>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
         <v>350</v>
@@ -6212,8 +7206,16 @@
       <c r="D13" s="21">
         <v>94522</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H13" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" s="70">
+        <f>D35</f>
+        <v>25917</v>
+      </c>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
         <v>351</v>
@@ -6224,8 +7226,19 @@
       <c r="D14" s="21">
         <v>640197</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H14" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" s="71">
+        <f>D36</f>
+        <v>371572</v>
+      </c>
+      <c r="J14" s="64">
+        <f>I14/$I5*100</f>
+        <v>26.17838007305981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
         <v>352</v>
@@ -6236,8 +7249,13 @@
       <c r="D15" s="21">
         <v>734719</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
         <v>353</v>
       </c>
@@ -6248,18 +7266,45 @@
       <c r="D16" s="21">
         <v>367084</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H16" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="I16" s="70" t="e">
+        <f>NULL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
         <v>354</v>
       </c>
       <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H17" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="67" t="e">
+        <f>NULL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H18" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="I18" s="71">
+        <f>D37</f>
+        <v>371572</v>
+      </c>
+      <c r="J18" s="64">
+        <f>I18/$I5*100</f>
+        <v>26.17838007305981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
         <v>355</v>
@@ -6270,8 +7315,13 @@
       <c r="D19" s="21">
         <v>1731</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
         <v>356</v>
@@ -6282,8 +7332,19 @@
       <c r="D20" s="21">
         <v>4460</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H20" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="71">
+        <f>D43</f>
+        <v>247868</v>
+      </c>
+      <c r="J20" s="64">
+        <f>I20/$I5*100</f>
+        <v>17.463056182783387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="27" t="s">
         <v>357</v>
@@ -6295,7 +7356,7 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
         <v>358</v>
@@ -6307,7 +7368,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
         <v>359</v>
@@ -6319,7 +7380,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
         <v>360</v>
@@ -6331,7 +7392,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
         <v>198</v>
@@ -6343,7 +7404,7 @@
         <v>11886</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
         <v>361</v>
@@ -6355,17 +7416,17 @@
         <v>30405</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="s">
         <v>362</v>
       </c>
       <c r="B27" s="27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
         <v>241</v>
@@ -6377,7 +7438,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
         <v>363</v>
@@ -6389,7 +7450,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
         <v>364</v>
@@ -6401,7 +7462,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
         <v>365</v>
@@ -6557,10 +7618,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6568,24 +7629,27 @@
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>271</v>
       </c>
@@ -6593,7 +7657,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>376</v>
       </c>
@@ -6601,7 +7665,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>377</v>
       </c>
@@ -6609,7 +7673,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -6620,12 +7684,21 @@
         <v>514662</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>382</v>
       </c>
@@ -6635,8 +7708,18 @@
       <c r="D11" s="26">
         <v>393858</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H11" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="69">
+        <f>D8</f>
+        <v>514662</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>349</v>
       </c>
@@ -6646,8 +7729,16 @@
       <c r="D12" s="26">
         <v>88074</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H12" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" s="70">
+        <f>D11</f>
+        <v>393858</v>
+      </c>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>383</v>
       </c>
@@ -6657,8 +7748,19 @@
       <c r="D13" s="26">
         <v>481933</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H13" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13" s="71">
+        <f>I11-I12</f>
+        <v>120804</v>
+      </c>
+      <c r="J13" s="77">
+        <f>I13/I11*100</f>
+        <v>23.472492626228476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -6668,13 +7770,39 @@
       <c r="D14" s="26">
         <v>32728</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H15" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="70">
+        <f>D12</f>
+        <v>88074</v>
+      </c>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H16" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="71">
+        <f>D14</f>
+        <v>32728</v>
+      </c>
+      <c r="J16" s="77">
+        <f>I16/I11*100</f>
+        <v>6.3591250179729606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>355</v>
       </c>
@@ -6684,8 +7812,13 @@
       <c r="D17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="75" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>356</v>
       </c>
@@ -6695,8 +7828,16 @@
       <c r="D18" s="26">
         <v>1052</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H18" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="I18" s="70">
+        <f>D22</f>
+        <v>3709</v>
+      </c>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>358</v>
       </c>
@@ -6706,8 +7847,16 @@
       <c r="D19">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H19" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="I19" s="70">
+        <f>D27</f>
+        <v>14767</v>
+      </c>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>384</v>
       </c>
@@ -6717,8 +7866,19 @@
       <c r="D20" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H20" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="I20" s="71">
+        <f>D28</f>
+        <v>21671</v>
+      </c>
+      <c r="J20" s="77">
+        <f>I20/$I11*100</f>
+        <v>4.2107247086437312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>385</v>
       </c>
@@ -6728,8 +7888,13 @@
       <c r="D21" s="26">
         <v>2488</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>361</v>
       </c>
@@ -6739,13 +7904,42 @@
       <c r="D22" s="26">
         <v>3709</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H22" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="I22" s="70">
+        <f>D35</f>
+        <v>9628</v>
+      </c>
+      <c r="J22" s="76"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H23" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="72">
+        <f>D43</f>
+        <v>12526</v>
+      </c>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H24" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="I24" s="71">
+        <f>D44</f>
+        <v>18774</v>
+      </c>
+      <c r="J24" s="77">
+        <f>I24/$I11*100</f>
+        <v>3.6478310036489972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>241</v>
       </c>
@@ -6755,8 +7949,13 @@
       <c r="D25" s="26">
         <v>12192</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>386</v>
       </c>
@@ -6766,8 +7965,19 @@
       <c r="D26" s="26">
         <v>2574</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H26" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="I26" s="71">
+        <f>D50</f>
+        <v>10422</v>
+      </c>
+      <c r="J26" s="77">
+        <f>I26/$I11*100</f>
+        <v>2.0250183615654547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>367</v>
       </c>
@@ -6778,7 +7988,7 @@
         <v>14767</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>368</v>
       </c>
@@ -6789,12 +7999,12 @@
         <v>21671</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>388</v>
       </c>
@@ -6805,7 +8015,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>389</v>
       </c>
@@ -7005,10 +8215,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7018,9 +8228,11 @@
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>267</v>
       </c>
@@ -7031,7 +8243,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>268</v>
       </c>
@@ -7042,7 +8254,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>269</v>
       </c>
@@ -7053,7 +8265,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -7062,7 +8274,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
         <v>270</v>
       </c>
@@ -7073,7 +8285,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7085,8 +8297,14 @@
       <c r="G6" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>403</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1186831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -7098,8 +8316,15 @@
       <c r="G7" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" s="21">
+        <f>(F58+G58)/2</f>
+        <v>1044275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
         <v>275</v>
       </c>
@@ -7109,8 +8334,15 @@
       <c r="E8" s="27"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L8" s="61">
+        <f>$L6/L7</f>
+        <v>1.1365119341169712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -7118,8 +8350,15 @@
       <c r="E9" s="27"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" s="21">
+        <f>(F41+G41)/2</f>
+        <v>248284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
         <v>276</v>
@@ -7129,8 +8368,15 @@
       <c r="E10" s="27"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>438</v>
+      </c>
+      <c r="L10" s="61">
+        <f>$L6/L9</f>
+        <v>4.7801348455800614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7138,8 +8384,15 @@
       <c r="E11" s="27"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="21">
+        <f>(G57+F57)/2</f>
+        <v>638872.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -7153,8 +8406,15 @@
       <c r="G12" s="21">
         <v>110761</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="61">
+        <f>$L6/L11</f>
+        <v>1.8576961756845067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
@@ -7168,8 +8428,15 @@
       <c r="G13" s="21">
         <v>121093</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>441</v>
+      </c>
+      <c r="L13" s="21">
+        <f>(SUM(F15:F17)+SUM(G15:G17))/2</f>
+        <v>107963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="s">
@@ -7183,8 +8450,15 @@
       <c r="G14" s="21">
         <v>35028</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>442</v>
+      </c>
+      <c r="L14" s="61">
+        <f>$L6/L13</f>
+        <v>10.992942026434982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
@@ -7199,7 +8473,7 @@
         <v>73189</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -7214,7 +8488,7 @@
         <v>9994</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27" t="s">
@@ -7229,7 +8503,7 @@
         <v>26153</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
@@ -7244,7 +8518,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
@@ -7259,7 +8533,7 @@
         <v>21854</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
@@ -7274,7 +8548,7 @@
         <v>14549</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -7289,7 +8563,7 @@
         <v>-1080</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
@@ -7304,7 +8578,7 @@
         <v>416833</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
         <v>287</v>
@@ -7324,7 +8598,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27" t="s">
@@ -7335,7 +8609,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -7344,7 +8618,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7934,7 +9208,7 @@
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9607,12 +10881,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
@@ -10333,22 +11607,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="32" t="s">
         <v>230</v>
       </c>
@@ -10357,8 +11631,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="33" t="s">
         <v>231</v>
       </c>
@@ -10367,8 +11641,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="34" t="s">
         <v>232</v>
       </c>
@@ -10377,12 +11651,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="H7" t="s">
         <v>226</v>
       </c>
@@ -10391,10 +11665,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="G8" t="s">
         <v>221</v>
       </c>
@@ -10728,18 +12002,18 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="28"/>
@@ -10850,18 +12124,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="28"/>
@@ -10924,10 +12198,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="36" t="s">
         <v>239</v>
       </c>
@@ -10936,10 +12210,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="37">
         <v>-2285383</v>
       </c>
@@ -10948,10 +12222,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="36">
         <v>5459816</v>
       </c>
@@ -10960,10 +12234,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="37">
         <v>3174433</v>
       </c>
@@ -10979,16 +12253,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:A6"/>
@@ -10996,6 +12260,16 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11150,10 +12424,10 @@
       <c r="D7" s="1">
         <v>26153</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="H7" t="s">
         <v>125</v>
       </c>
@@ -12146,10 +13420,10 @@
         <f>D53</f>
         <v>399065</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="58"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="19" t="s">
         <v>125</v>
       </c>
